--- a/Testdata/Testadata.xlsx
+++ b/Testdata/Testadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanshik\eclipse-workspace\January-Selenium-Maven\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E98920-4A8F-4461-AA9E-975C356BE4C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EE8363-987B-46C2-AB2C-46C2ED4DDAAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06B87CB-1386-4305-A7E5-C1149878BE2D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Tc_Name</t>
   </si>
@@ -47,13 +47,22 @@
   </si>
   <si>
     <t>Tc_01_ValidateSigin_Page</t>
+  </si>
+  <si>
+    <t>Tc_02_RegisterNewUser</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +74,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,16 +124,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,19 +462,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EF106F-0EF0-40FD-B3CD-E138CBD98A46}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +487,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -470,9 +505,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{CBB829A9-0A62-4EA5-A6FB-2C8282E737A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
